--- a/prospeccao.xlsx
+++ b/prospeccao.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prospeccao" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'prospeccao'!$A$1:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'prospeccao'!$A$1:$Z$51</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -445,23 +445,30 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="60" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
-    <col width="60" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="27" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="22" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="42" customWidth="1" min="16" max="16"/>
-    <col width="51" customWidth="1" min="17" max="17"/>
-    <col width="8" customWidth="1" min="18" max="18"/>
-    <col width="27" customWidth="1" min="19" max="19"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="56" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="29" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="26" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="22" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="60" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="42" customWidth="1" min="23" max="23"/>
+    <col width="51" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="25" max="25"/>
+    <col width="27" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,85 +484,120 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>place_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>instagram</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>telefone</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>whatsapp_link</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cidade</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pais</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bairro</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>nicho</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>tem_link_na_bio</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>tem_site</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>tem_whatsapp_visivel</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>business_status</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>user_ratings_total</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>place_types</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>open_now</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>activity_score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>score</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>observacao</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>link_origem</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>data_coleta</t>
         </is>
@@ -563,7 +605,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -572,85 +614,120 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arizona Barber Club- Hall Of Fades</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>ChIJNQpw8O9LzJQRXQQPj4nhF9c</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Carla Simone - Cílios e Sobrancelhas</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+1 623-248-1437</t>
+          <t>https://www.instagram.com/carlasimones/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://wa.me/16232481437</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+55 12 98819-7560</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://wa.me/5512988197560</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Peoria</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13232587014223554790</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=15499104623545746525</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -659,85 +736,120 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Arizona Barber Co</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>ChIJKRxO6bA3zJQRy85bduIWjeM</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Isabela Silva | Designer de sobrancelhas</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+1 480-860-4650</t>
+          <t>https://www.instagram.com/designer_isabelasilva/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://wa.me/14808604650</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+55 12 97401-9171</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://wa.me/5512974019171</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Scottsdale</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17092877235655268203</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=16396786980229992139</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -746,85 +858,120 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Arizona Barber Shop</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>ChIJR39FTkizzZQRQGaevJ3OwKY</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Letícia Fernanda Studio - Sobrancelhas e micropigmentação</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+1 928-341-0014</t>
+          <t>https://www.instagram.com/invites/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://wa.me/19283410014</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+55 12 99140-0468</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://wa.me/5512991400468</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Yuma</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9560089254188687276</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=12015830982694168128</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -833,85 +980,120 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arizona Fade Factory</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>ChIJ87b6_oc3Iw0Rn_OuKXhXKi4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Studio Sarah Lash Designer Pestanas Viseu</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>+1 520-252-0315</t>
+          <t>https://www.instagram.com/sarah.lashdesiign/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://wa.me/15202520315</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+351 920 413 089</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://wa.me/351920413089</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Casa Grande</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8217250679166616508</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=3326567448373556127</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -920,85 +1102,120 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Legends BarberShop</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>ChIJf0RDw5ozGQ0RNlw7_T8jcOY</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Yara Freire | Lash Designer | Odivelas PT</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+1 602-501-8675</t>
+          <t>https://www.instagram.com/yarafreirelash/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://wa.me/16025018675</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+351 926 294 151</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://wa.me/351926294151</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Glendale</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12598084007570110485</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=16604810583853456438</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1007,85 +1224,120 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>New York &amp; Arizona Styles Barber Shop</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>ChIJvy3b9F5LzJQRvgFDKAAx8yY</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Daiane Alves Lash Designer</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>+1 480-336-0895</t>
+          <t>https://www.instagram.com/daianealves.lash/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://wa.me/14803360895</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+55 12 99619-0354</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://wa.me/5512996190354</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Chandler</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Encontrado por: barber</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=6703324865156729433</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=2806640869527191998</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1094,85 +1346,120 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Real Barbers of Arizona</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>ChIJtWE-R7dLzJQRHKGeIwJXyIQ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Designer de Sobrancelhas | GabCostaBeauty</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+1 623-282-7917</t>
+          <t>https://www.instagram.com/gabcostabeauty/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://wa.me/16232827917</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+55 12 98701-7483</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://wa.me/5512987017483</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Encontrado por: barber</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=344299156798624530</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=9567993075047768348</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1181,85 +1468,120 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Terminal Barber Shop</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>ChIJQ_Qf92E1zJQRA0cBEjvCG5w</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Karina Vieira Beauty Clinic</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>+1 480-757-7000</t>
+          <t>https://www.instagram.com/karinavieirabeautyclinic/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://wa.me/14807577000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+55 12 98266-4176</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://wa.me/5512982664176</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Tempe</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Encontrado por: barber</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=5252958011206005361</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Encontrado por: brow designer</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=11248798053248878339</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:46:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1268,85 +1590,120 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Two Sixty Barber Shop</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>ChIJgb8qt8I1zJQRRlZIsOYKgwo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Lash Designer - Gabriela Neves</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+1 928-940-0409</t>
+          <t>https://www.instagram.com/studiogabrielanevesdesign/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://wa.me/19289400409</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+55 12 98830-7556</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://wa.me/5512988307556</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Heber</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Encontrado por: barber</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=1807360540450226813</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=757461148244661830</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>17</v>
+      <c r="A11" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1355,81 +1712,120 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Barbearia Arizona Desert</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>ChIJq4a8aFm1zZQRUT8OqB29Ul4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Liara Monteiro | Beauty Studio</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>+55 11 98533-8140</t>
+          <t>https://www.instagram.com/liaramonteiro.beautystudio_/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://wa.me/5511985338140</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>+55 12 98101-0808</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://wa.me/5512981010808</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5419778640953860316</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=6796702722726707025</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>12</v>
+      <c r="A12" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1438,89 +1834,120 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(HQ) Headquarters Barbershop</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>ChIJ86n95Ko1zJQRQFuRqniQmGw</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Serpa Beauty</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>+1 480-219-0659</t>
+          <t>https://www.instagram.com/marianaserpa.beauty/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://wa.me/14802190659</t>
+          <t>+55 12 98231-2679</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.hqbarbershopaz.com/</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982312679</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Scottsdale</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Encontrado por: barber</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=11642188139045214414</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=7825163200488364864</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
+      <c r="A13" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1529,89 +1956,120 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ac the barber / ADRIANS Barbershop LLC</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>ChIJufaQWkxLzJQRzHHU6oet3sE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Studio By Fabi Nascimento</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>+1 602-877-9477</t>
+          <t>https://www.instagram.com/byfabiolanascimento/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://wa.me/16028779477</t>
+          <t>+55 12 98223-6889</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://adrians-barbershop-llc.square.site/</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982236889</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Room</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17764698249749687809</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=13969793893421838796</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
+      <c r="A14" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1620,89 +2078,120 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>All American Barber Academy</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>ChIJfx0gFAC1zZQRUfh520b5TWc</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Studio Lírio Beleza e Fragrância</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>+1 623-939-3440</t>
+          <t>https://www.instagram.com/studioliriosjc/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://wa.me/16239393440</t>
+          <t>+55 12 99774-4088</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>http://www.allamericanbarberacademy.com/</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512997744088</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Glendale</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4794289347810387442</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>beauty_salon,clothing_store,establishment,point_of_interest,store</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=7443879841838528593</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>12</v>
+      <c r="A15" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1711,30 +2200,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ana's Lash &amp; Nail's</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>ChIJf5oGuZtLzJQRNVl7ePFCYgQ</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Studio Bárbara - Sobrancelha e Cílios</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+351 913 760 561</t>
+          <t>https://www.instagram.com/barbara.lashbrow/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://wa.me/351913760561</t>
+          <t>+55 12 98162-3639</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://anaslashenails.pt/</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512981623639</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -1745,55 +2234,78 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>sobrancelhas henna</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Encontrado por: sobrancelhas henna</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=11346906625283472122</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=315888528745257269</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:17:25+00:00</t>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>12</v>
+      <c r="A16" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1802,30 +2314,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Andry Studio, Design de Sobrancelha,</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>+351 962 839 891</t>
-        </is>
-      </c>
+          <t>ChIJJWJD8vw1zJQR01gtMtSE0to</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Lash designer | Camila Fernandes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://wa.me/351962839891</t>
+          <t>+55 12 98272-3938</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/andrybeautystudio?igsh=eTFmbDZ1cm1xN3Jn&amp;utm_source=qr</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982723938</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -1836,55 +2344,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>sobrancelhas henna</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Encontrado por: sobrancelhas henna</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6652387364514227778</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=15767811292287293651</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:17:25+00:00</t>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>12</v>
+      <c r="A17" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1893,30 +2432,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Angela Furtado Beauty &amp; Academy | Micropigmentação de Sobrancelhas, Lábios e Olhos | Técnica Exclusiva Hydra Lips Glam</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>+351 925 716 074</t>
-        </is>
-      </c>
+          <t>ChIJ36so8ygyGQ0Rb3cm9vcFai4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Silvia Machado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://wa.me/351925716074</t>
+          <t>+351 924 317 825</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>http://angelafurtadobeauty.com/</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/351924317825</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -1929,53 +2464,88 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>sobrancelhas henna</t>
+          <t>Sala A</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Encontrado por: sobrancelhas henna</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3460088907051728525</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=3344492235820791663</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:17:25+00:00</t>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>12</v>
+      <c r="A18" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1984,89 +2554,120 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ARIZONA barbearia</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>ChIJNeypPkC1zZQREcYxQNiwUX8</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Bianca Albuquerque</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+55 85 98228-7134</t>
+          <t>https://www.instagram.com/lashdesigner.albuquerque/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://wa.me/5585982287134</t>
+          <t>+55 12 98185-5031</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://instagram.com/arizona.barbershop</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512981855031</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Fortaleza - CE</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2504474010805915151</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest,spa</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=9174308358766839313</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>12</v>
+      <c r="A19" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2075,89 +2676,120 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Arizona Barbering &amp; Cosmetology Board</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>ChIJLa_oDIJLzJQREDi0T1giiKA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fe Ribeiro Micro - Design de Sobrancelhas</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>+1 480-784-4539</t>
+          <t>https://www.instagram.com/feribeiromicro/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://wa.me/14807844539</t>
+          <t>+55 12 98898-6327</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>http://bcb.az.gov/</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512988986327</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12848155965466504505</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Encontrado por: brow designer</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=11567533405590796304</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:46:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>12</v>
+      <c r="A20" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2166,89 +2798,120 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Arizona Barbers</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>ChIJp00UCSIzGQ0RjxSisGTG7SA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jak Albuquerque Studio - Micropigmentação, tratamento de estrias e Formações</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>+1 623-873-4772</t>
+          <t>https://www.instagram.com/jakalbuquerquestudio/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://wa.me/16238734772</t>
+          <t>+351 967 179 243</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://lusx.top/arizona-barbers</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/351967179243</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17672214223040563740</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=2372770714456560783</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>12</v>
+      <c r="A21" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2257,89 +2920,120 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Arizona Barbershop</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>ChIJBSGVroJlJA0RPeKMs9eCI9A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Leandra Torres - extensão de pestanas e sobrancelhas</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>+1 480-930-6055</t>
+          <t>https://www.instagram.com/leandratorres.lash/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://wa.me/14809306055</t>
+          <t>+351 935 389 567</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.vagaro.com/thajrich</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/351935389567</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=641733902410198521</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=14997975047015817789</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>12</v>
+      <c r="A22" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2348,89 +3042,120 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Arizona Fresh Barbershop</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>ChIJrXUoSMdlJA0ReZ6KHZPf7OQ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Leticia Green Estética e sobrancelhas no Porto</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>+1 623-939-0077</t>
+          <t>https://www.instagram.com/greenestetica/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://wa.me/16239390077</t>
+          <t>+351 931 403 541</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>http://arizonafreshcollective.com/</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/351931403541</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8944479741476460279</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=16495805358100094585</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>12</v>
+      <c r="A23" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2439,89 +3164,120 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Arizona Men's Grooming</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>ChIJgcBO2-1zIg0Ra0vlprEY-Nk</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Micropigmentação| Design de Sobrancelha, Leiria Renata Carolini Academy</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>+1 623-227-8426</t>
+          <t>https://www.instagram.com/renata.carolinii/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://wa.me/16232278426</t>
+          <t>+351 938 460 525</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>http://www.arizonamensgrooming.com/</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/351938460525</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5906077666895215763</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=15706330851742927723</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>12</v>
+      <c r="A24" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2530,89 +3286,120 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AV BARBER CO.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>ChIJWx2mu8AzGQ0RGSqAx_UeehA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Raphaela Rodrigues I Micropigmentação &amp; Remoção a Laser - Lisboa</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>+1 480-687-3823</t>
+          <t>https://www.instagram.com/raphaelarodriguespmu/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://wa.me/14806873823</t>
+          <t>+351 931 369 734</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>http://www.avbarberco.com/</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/351931369734</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Gilbert</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16557425084070807722</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=1187295492728433177</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>12</v>
+      <c r="A25" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2621,89 +3408,120 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AV BARBER CO.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>ChIJs_5HC7DJHg0RiJSIFjrInVE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Renata Kellen PMU Especialista em Micropigmentação de Sobrancelhas e Lábios / Formações / Depilação a laser</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+1 480-398-7091</t>
+          <t>https://www.instagram.com/invites/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://wa.me/14803987091</t>
+          <t>+351 915 276 479</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>http://www.avbarberco.com/</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/351915276479</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Mesa</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=876990057789765751</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest,store</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=5881076840227443848</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>12</v>
+      <c r="A26" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2712,89 +3530,120 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Barber Bros</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>ChIJgVox5fdkJA0RAdl2EFz8l7U</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Studio Leia Liberato</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>+1 602-358-7054</t>
+          <t>https://www.instagram.com/studioleialiberato/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://wa.me/16023587054</t>
+          <t>+351 916 530 629</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>http://barberbrosaz.com/</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/351916530629</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8197177992484553309</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=13085204714691680513</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>12</v>
+      <c r="A27" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2803,30 +3652,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BLEEM - Styling de Sobrancelhas</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>ChIJFUk7p_BLzJQR3Y8OcPiwDk4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Studio Mari Silva - Estética e Micropigmentação</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>+351 963 708 937</t>
+          <t>https://www.instagram.com/marisilva_studio/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://wa.me/351963708937</t>
+          <t>+55 12 99606-2130</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>http://www.bleem.pt/</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512996062130</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -2837,55 +3686,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>sobrancelhas henna</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Encontrado por: sobrancelhas henna</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7219510492007993071</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest,store</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=5624627565710708701</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:17:25+00:00</t>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>12</v>
+      <c r="A28" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2894,89 +3774,116 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Boricua Blendz Barbershop</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>ChIJ_bOCn8G1zZQR0bPiqijwiGw</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Ana Meirelles - Studio Beauty</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>+1 928-228-3244</t>
+          <t>https://www.instagram.com/studio.anameirelless/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://wa.me/19282283244</t>
+          <t>+55 12 99745-3833</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>http://showlowbarber.com/</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512997453833</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Show Low</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2274982256019800135</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=7820764810385208273</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>12</v>
+      <c r="A29" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2985,30 +3892,26 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Clinica de Estética - Kathy Medrady</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>+351 960 163 193</t>
-        </is>
-      </c>
+          <t>ChIJj1zbWo9LzJQRMat-7Y2yVk0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Michelle de Oliveira | Sobrancelhista SJC</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://wa.me/351960163193</t>
+          <t>+55 12 98290-8274</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.kathymedrady.com/</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982908274</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -3019,55 +3922,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>sobrancelhas henna</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Encontrado por: sobrancelhas henna</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4469336212469185656</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=5572837911562201905</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:17:25+00:00</t>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>12</v>
+      <c r="A30" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -3076,89 +4010,116 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Five Star Barber Shop</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>+1 480-897-2166</t>
-        </is>
-      </c>
+          <t>ChIJMeuzoFu1zZQRsO7a8mAdUBQ</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Paula Migri - Lash Designer - Extensão de Cílios</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://wa.me/14808972166</t>
+          <t>+55 12 99672-6284</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>http://www.barberchandler.com/?utm_source=GMBlisting&amp;amp;utm_medium=organic</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512996726284</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Chandler</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=11195110699716413660</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=1463702181123911344</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>12</v>
+      <c r="A31" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -3167,89 +4128,116 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Hector The Barber Scottsdale AZ</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>+1 623-703-7094</t>
-        </is>
-      </c>
+          <t>ChIJN9s1f9y1zZQRrsi7tz6kTzY</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>studio Hair Silvia Borges Salão</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://wa.me/16237037094</t>
+          <t>+55 12 99182-8980</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://www.hectorthebarber.com/</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512991828980</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Scottsdale</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3797049571168891999</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Encontrado por: brow designer</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=3913527190485715118</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:46:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>12</v>
+      <c r="A32" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3258,30 +4246,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Into Beauty Studio</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>ChIJwQdvRXW1zZQRqxjRWd6d2fc</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Studio Letícia Felix Beauty</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>+351 932 855 167</t>
+          <t>https://www.instagram.com/leticiafelix_beauty/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://wa.me/351932855167</t>
+          <t>+55 12 99683-5598</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://intobeauty.pt/</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512996835598</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -3292,55 +4280,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>estúdio de sobrancelhas</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Encontrado por: estúdio de sobrancelhas</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2119271701406473893</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=17859479375629588651</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:20:13+00:00</t>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>12</v>
+      <c r="A33" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3349,89 +4368,116 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jordan's Barbershop</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>+1 480-876-2425</t>
-        </is>
-      </c>
+          <t>ChIJsUOhmtS1zZQRvL4IfbMmiWQ</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Studio Stella Blanque</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://wa.me/14808762425</t>
+          <t>+55 12 98213-7589</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://instagram.com/jordans.barber.shop?igshid=MDM4ZDc5MmU=</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982137589</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Phoenix</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17708150077627766929</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=7244364027940880060</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>12</v>
+      <c r="A34" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3440,30 +4486,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lia Beauty</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>ChIJa4z_bGdNzJQR2Eup6Ohs4dE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Lashes by Amanda Gleycielle/ Extensão de cílios</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>+351 929 351 985</t>
+          <t>https://www.instagram.com/byagleycielle/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://wa.me/351929351985</t>
+          <t>+55 12 98226-2341</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://instagram.com/liabeauty.pt</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982262341</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -3474,55 +4520,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>sobrancelhas henna</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Encontrado por: sobrancelhas henna</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15330980435009523124</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=15123488771278457816</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:17:25+00:00</t>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>12</v>
+      <c r="A35" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3531,89 +4608,116 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LifeLine Barbershop</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>+1 480-415-7549</t>
-        </is>
-      </c>
+          <t>ChIJ_YNBK6C1zZQRDOIlq97OzS8</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Camarim Unhas e Sobrancelhas</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://wa.me/14804157549</t>
+          <t>+55 12 98820-3941</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>http://lifelinebarbershop.com/</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512988203941</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Chandler</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3917258502719030958</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,hair_care,point_of_interest,store</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=3444636745757745676</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>12</v>
+      <c r="A36" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3622,30 +4726,26 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>maqē - Swiss Beauty Oasis Lisbon</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>+351 938 378 117</t>
-        </is>
-      </c>
+          <t>ChIJg2mL1BVLzJQREqBltCkPT7w</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Carol Sampaio Micropigmentadora</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://wa.me/351938378117</t>
+          <t>+55 12 98281-5874</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://maqeessential.com/</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982815874</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -3656,55 +4756,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>designer de sobrancelhas</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2380199352103301036</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=13569080874085228562</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:16:11+00:00</t>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>12</v>
+      <c r="A37" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3713,30 +4844,26 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mari faz Sobrancelha</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>+351 931 714 457</t>
-        </is>
-      </c>
+          <t>ChIJ878Bz_m1zZQRaCjEh7WJomk</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Esmalteria Pink Puppin</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://wa.me/351931714457</t>
+          <t>+55 12 99179-1543</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://link.booksy.com/mari-faz-sobrancelha</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512991791543</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -3747,55 +4874,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
         <is>
           <t>designer de sobrancelhas</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>não</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
           <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=6075633207814634683</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=7611797732969425000</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:16:11+00:00</t>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>12</v>
+      <c r="A38" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3804,30 +4962,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Microblading Lisboa &amp; Threading - Por Lene Silva Designer de Sobrancelhas</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>+351 918 658 386</t>
-        </is>
-      </c>
+          <t>ChIJRf0Vs1y1zZQRuCqU8Ewf6TU</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Espaço de Beleza Larissa Evelyn</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://wa.me/351918658386</t>
+          <t>+55 12 98254-3208</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://lenesilva.pt/</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982543208</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -3838,55 +4992,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
         <is>
           <t>designer de sobrancelhas</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>não</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
           <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=10902074379220053296</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=3884670568897981112</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:16:11+00:00</t>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>12</v>
+      <c r="A39" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3895,30 +5080,30 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Micropigmentação de sobrancelhas - Alina Zhuk</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>ChIJs6VzczA1zJQRrGjydqRp4_k</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Estúdio Sobrancelhas Bianca Fernandes</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>+351 910 681 730</t>
+          <t>https://www.instagram.com/estudiosobrancelhasbf/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://wa.me/351910681730</t>
+          <t>+55 12 99112-0138</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/permanent_alinazhuk/</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512991120138</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -3926,58 +5111,85 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Parque das Nações</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>micropigmentação</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>estúdio de sobrancelhas</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7797778901679190449</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest,spa</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Encontrado por: estúdio de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=18006351890248525996</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:19:02+00:00</t>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:48:45+00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>12</v>
+      <c r="A40" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3986,30 +5198,26 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Micropigmentação de Sobrancelhas - Daiane Castro</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>+351 926 823 205</t>
-        </is>
-      </c>
+          <t>ChIJSY3LXjs1zJQRcpR2KB0akdA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Gabriela Moraes - Design de Sobrancelhas, Estética e Depilação</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://wa.me/351926823205</t>
+          <t>+55 12 98262-5196</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://daianecastropmu.wixsite.com/website</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982625196</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4017,58 +5225,89 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Centro Comercial Miratejo</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>micropigmentação</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16354870362465803131</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=15028822144047289458</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:19:02+00:00</t>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>12</v>
+      <c r="A41" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4077,30 +5316,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Micropigmentação Labial Portugal</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>+351 914 761 444</t>
-        </is>
-      </c>
+          <t>ChIJvWTjOwA1zJQROkSWGaNg9bw</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Iana Beauty | Extensão de cílios | Lash Lifting</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://wa.me/351914761444</t>
+          <t>+55 12 98896-1911</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://priscilacenra.com/</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512988961911</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4111,55 +5346,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>micropigmentação</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6548666068745686634</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=13615895302049776698</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:19:02+00:00</t>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>12</v>
+      <c r="A42" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4168,30 +5434,26 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mika Estetica - Atendimento a Domicílio</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>+351 968 405 595</t>
-        </is>
-      </c>
+          <t>ChIJFW2WymBpzpQR0uR3s7vbHH8</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Jade Rodrigues Micropigmentação e academy</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://wa.me/351968405595</t>
+          <t>+55 11 96100-8500</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/mikadesousaesteticista?igsh=amtoa3VzeXR2a3hi</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5511961008500</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4202,55 +5464,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>sobrancelhas henna</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Encontrado por: sobrancelhas henna</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=8373345563055768788</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=9159437341381092562</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:17:25+00:00</t>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>12</v>
+      <c r="A43" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4259,30 +5552,26 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MINHA FLOR NAILS &amp; SPA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>+351 963 830 329</t>
-        </is>
-      </c>
+          <t>ChIJsT0XHGBzIg0RXS2BAafecjc</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Look 4 You</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://wa.me/351963830329</t>
+          <t>+351 910 557 391</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://minhaflor.pt/</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/351910557391</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4293,55 +5582,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
         <is>
           <t>designer de sobrancelhas</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>não</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
           <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=11386666276049761838</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=3995500628297198941</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:16:11+00:00</t>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>12</v>
+      <c r="A44" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4350,30 +5670,26 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Musa Studio</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>+351 928 090 764</t>
-        </is>
-      </c>
+          <t>ChIJSSkIUZazzZQRXVa5BeiOTKw</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mirian designer sobrancelhas</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://wa.me/351928090764</t>
+          <t>+55 12 99778-7263</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>http://www.musastudio.net/</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512997787263</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4384,55 +5700,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>estúdio de sobrancelhas</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Encontrado por: estúdio de sobrancelhas</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6995131468967904703</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Encontrado por: designer de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=12415455399933204061</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:20:13+00:00</t>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>12</v>
+      <c r="A45" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4441,30 +5788,26 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nail, eyebrows and aesthetic</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>+351 920 293 446</t>
-        </is>
-      </c>
+          <t>ChIJgzxlBwZLzJQR96bnyw5IggA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>RAYNARA BIRAL BEAUTY</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://wa.me/351920293446</t>
+          <t>+55 12 98800-7080</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://wa.me/c/351920293446</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512988007080</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4475,55 +5818,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>designer de sobrancelhas</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2026847741099841541</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Encontrado por: brow designer</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=36670975360083703</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:16:11+00:00</t>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:46:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>12</v>
+      <c r="A46" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4532,30 +5906,26 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Olivio George • Lash Designer • Pestanas • Formação / Cursos •</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>+351 963 366 588</t>
-        </is>
-      </c>
+          <t>ChIJbZ9uGgBNzJQRe_Hgs3Ig3yI</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sheila Bittencourt Micropigmentação</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://wa.me/351963366588</t>
+          <t>+55 12 99682-8970</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>http://oliviogeorge.com/</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512996828970</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4566,55 +5936,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>brow designer</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Encontrado por: brow designer</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5380813126485713883</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Encontrado por: micropigmentação</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=2512762794112250235</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:18:37+00:00</t>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>12</v>
+      <c r="A47" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4623,30 +6024,26 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pestanas Lisboa - Studio Dayane Matos Beauty</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>+351 933 399 620</t>
-        </is>
-      </c>
+          <t>ChIJ23DRpZU1zJQRTweBNrxl9c8</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sobrancelhas &amp; Micropigmentação Jaqueline Oliveira</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://wa.me/351933399620</t>
+          <t>+55 12 98160-2244</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/dayanematos.beauty?igsh=aDAxYWw2OG5yZ3M3</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512981602244</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4657,55 +6054,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>designer de sobrancelhas</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>estúdio de sobrancelhas</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6110927852391637036</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Encontrado por: estúdio de sobrancelhas</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=14984995194187876175</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:16:11+00:00</t>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:48:45+00:00</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>12</v>
+      <c r="A48" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4714,30 +6142,26 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Raphaela Rodrigues I Micropigmentação &amp; Remoção a Laser - Lisboa</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>+351 931 369 734</t>
-        </is>
-      </c>
+          <t>ChIJpUW42cW1zZQR3PElAMAPVOk</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Studio Gabriella Santos design de sobrancelhas e lash</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://wa.me/351931369734</t>
+          <t>+55 12 98865-4503</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://instagram.com/raphaelarodriguespmu?utm_medium=copy_link</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512988654503</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4748,55 +6172,86 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
         <is>
           <t>designer de sobrancelhas</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>não</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
+          <t>OPERATIONAL</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
           <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>https://maps.google.com/?cid=1187295492728433177</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=16813080626191528412</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
         <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:16:11+00:00</t>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>12</v>
+      <c r="A49" s="2" t="n">
+        <v>26</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4805,30 +6260,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rayane Mazzon Studio de Sobrancelhas</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>+351 931 198 472</t>
-        </is>
-      </c>
+          <t>ChIJD-EgDnlLzJQR4LB8vfxmED4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Bruna Faria Designer de sobrancelhas e Micropigmentadora</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://wa.me/351931198472</t>
+          <t>+55 12 98271-5726</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://bit.ly/rayane-gmn</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/5512982715726</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4836,58 +6287,89 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Loja B</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>sobrancelhas henna</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Encontrado por: sobrancelhas henna</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6871230455979928826</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>establishment,point_of_interest,store</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Encontrado por: brow designer</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=4472187665675759840</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:17:25+00:00</t>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:46:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>12</v>
+      <c r="A50" s="2" t="n">
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4896,30 +6378,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rayssa Lash Lisbon</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>ChIJw5IsWCDZGA0R3Q6MjQLp61U</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Eva Araújo • Lash Designer • Pestanas Lisboa</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>+351 913 957 591</t>
+          <t>https://www.instagram.com/evalashexpert/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://wa.me/351913957591</t>
+          <t>+351 935 151 839</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://www.fresha.com/book-now/rayssa-lash-lisbon-edjee0zj/all-offer?share=true&amp;pId=1035566</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Lisboa - portugal</t>
-        </is>
-      </c>
+          <t>https://wa.me/351935151839</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
           <t>Portugal</t>
@@ -4927,58 +6409,89 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>porta esquerda</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>designer de sobrancelhas</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2826424188194668412</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=6191298309924851421</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>2026-02-12T11:16:11+00:00</t>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>12</v>
+      <c r="A51" s="2" t="n">
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4987,88 +6500,119 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RDZ’s Barber Shop</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>ChIJYzwHTQ8tGQ0RYgI0AiCt9mc</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Studio Karla Cunha - Arquiteta dos Cílios (Extensão de Pestanas - Lash Design)</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>+1 623-213-0780</t>
+          <t>https://www.instagram.com/arquitetadoscilios/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://wa.me/16232130780</t>
+          <t>+351 924 703 508</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://www.rdzsbarbershop.com/</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Arizona</t>
-        </is>
-      </c>
+          <t>https://wa.me/351924703508</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Glendale</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>barber</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>não</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Encontrado por: barber</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7001534402386558539</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Encontrado por: lash designer</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>https://maps.google.com/?cid=7491365383164920418</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
           <t>novo</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>2026-02-10T17:45:08+00:00</t>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S51"/>
+  <autoFilter ref="A1:Z51"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prospeccao.xlsx
+++ b/prospeccao.xlsx
@@ -447,13 +447,13 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="29" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="56" customWidth="1" min="5" max="5"/>
+    <col width="57" customWidth="1" min="5" max="5"/>
     <col width="19" customWidth="1" min="6" max="6"/>
     <col width="29" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
     <col width="26" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
@@ -605,7 +605,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -614,41 +614,45 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ChIJNQpw8O9LzJQRXQQPj4nhF9c</t>
+          <t>ChIJqX8HiWUxGQ0RsbGfv5hGN2w</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Carla Simone - Cílios e Sobrancelhas</t>
+          <t>Micropigmentação de sobrancelhas - Alina Zhuk</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/carlasimones/</t>
+          <t>https://www.instagram.com/permanent_alinazhuk/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>+55 12 98819-7560</t>
+          <t>+351 910 681 730</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://wa.me/5512988197560</t>
+          <t>https://wa.me/351910681730</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Parque das Nações</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>micropigmentação</t>
@@ -681,7 +685,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -696,12 +700,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -711,7 +715,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15499104623545746525</t>
+          <t>https://maps.google.com/?cid=7797778901679190449</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -721,7 +725,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2026-02-13T16:47:48+00:00</t>
+          <t>2026-02-13T17:34:32+00:00</t>
         </is>
       </c>
     </row>
@@ -736,33 +740,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ChIJKRxO6bA3zJQRy85bduIWjeM</t>
+          <t>ChIJd8hEP8svGQ0R8rCph7bVduw</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Isabela Silva | Designer de sobrancelhas</t>
+          <t>Studio de Sobrancelhas em Portugal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/designer_isabelasilva/</t>
+          <t>https://www.instagram.com/studiosobrancelhasemportugal/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>+55 12 97401-9171</t>
+          <t>+351 967 176 214</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://wa.me/5512974019171</t>
+          <t>https://wa.me/351967176214</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Póvoa de Santa Iria</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -773,7 +777,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>estúdio de sobrancelhas</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -798,12 +802,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -818,22 +822,22 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: estúdio de sobrancelhas</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16396786980229992139</t>
+          <t>https://maps.google.com/?cid=17039041220139659506</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -843,7 +847,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T17:35:48+00:00</t>
         </is>
       </c>
     </row>
@@ -858,33 +862,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ChIJR39FTkizzZQRQGaevJ3OwKY</t>
+          <t>ChIJ0eU6exmjIw0R95fDN1TUYN8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Letícia Fernanda Studio - Sobrancelhas e micropigmentação</t>
+          <t>Carla Correia - Micropigmentação Estética | Remoção de tatuagem | Aveiro</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/invites/</t>
+          <t>https://www.instagram.com/carlacorreia.pt/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>+55 12 99140-0468</t>
+          <t>+351 965 398 026</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://wa.me/5512991400468</t>
+          <t>https://wa.me/351965398026</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Aveiro</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -895,7 +899,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -925,7 +929,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -950,12 +954,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: micropigmentação</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12015830982694168128</t>
+          <t>https://maps.google.com/?cid=16096098526400059383</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -965,7 +969,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T17:34:32+00:00</t>
         </is>
       </c>
     </row>
@@ -980,44 +984,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ChIJ87b6_oc3Iw0Rn_OuKXhXKi4</t>
+          <t>ChIJNQpw8O9LzJQRXQQPj4nhF9c</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Studio Sarah Lash Designer Pestanas Viseu</t>
+          <t>Carla Simone - Cílios e Sobrancelhas</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/sarah.lashdesiign/</t>
+          <t>https://www.instagram.com/carlasimones/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>+351 920 413 089</t>
+          <t>+55 12 98819-7560</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://wa.me/351920413089</t>
+          <t>https://wa.me/5512988197560</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1047,7 +1051,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1072,12 +1076,12 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: micropigmentação</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3326567448373556127</t>
+          <t>https://maps.google.com/?cid=15499104623545746525</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1087,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
@@ -1102,44 +1106,44 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ChIJf0RDw5ozGQ0RNlw7_T8jcOY</t>
+          <t>ChIJKRxO6bA3zJQRy85bduIWjeM</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yara Freire | Lash Designer | Odivelas PT</t>
+          <t>Isabela Silva | Designer de sobrancelhas</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/yarafreirelash/</t>
+          <t>https://www.instagram.com/designer_isabelasilva/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>+351 926 294 151</t>
+          <t>+55 12 97401-9171</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://wa.me/351926294151</t>
+          <t>https://wa.me/5512974019171</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1169,7 +1173,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1194,12 +1198,12 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16604810583853456438</t>
+          <t>https://maps.google.com/?cid=16396786980229992139</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1209,13 +1213,13 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1224,44 +1228,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ChIJvy3b9F5LzJQRvgFDKAAx8yY</t>
+          <t>ChIJR39FTkizzZQRQGaevJ3OwKY</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Daiane Alves Lash Designer</t>
+          <t>Letícia Fernanda Studio - Sobrancelhas e micropigmentação</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/daianealves.lash/</t>
+          <t>https://www.instagram.com/invites/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>+55 12 99619-0354</t>
+          <t>+55 12 99140-0468</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://wa.me/5512996190354</t>
+          <t>https://wa.me/5512991400468</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1291,7 +1295,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1306,7 +1310,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1316,12 +1320,12 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2806640869527191998</t>
+          <t>https://maps.google.com/?cid=12015830982694168128</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1331,13 +1335,13 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1346,27 +1350,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ChIJtWE-R7dLzJQRHKGeIwJXyIQ</t>
+          <t>ChIJ87b6_oc3Iw0Rn_OuKXhXKi4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Designer de Sobrancelhas | GabCostaBeauty</t>
+          <t>Studio Sarah Lash Designer Pestanas Viseu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/gabcostabeauty/</t>
+          <t>https://www.instagram.com/sarah.lashdesiign/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>+55 12 98701-7483</t>
+          <t>+351 920 413 089</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://wa.me/5512987017483</t>
+          <t>https://wa.me/351920413089</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1383,7 +1387,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1413,7 +1417,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>24</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1428,7 +1432,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1438,12 +1442,12 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9567993075047768348</t>
+          <t>https://maps.google.com/?cid=3326567448373556127</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1453,13 +1457,13 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1468,27 +1472,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ChIJQ_Qf92E1zJQRA0cBEjvCG5w</t>
+          <t>ChIJf0RDw5ozGQ0RNlw7_T8jcOY</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Karina Vieira Beauty Clinic</t>
+          <t>Yara Freire | Lash Designer | Odivelas PT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/karinavieirabeautyclinic/</t>
+          <t>https://www.instagram.com/yarafreirelash/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>+55 12 98266-4176</t>
+          <t>+351 926 294 151</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982664176</t>
+          <t>https://wa.me/351926294151</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1505,7 +1509,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>brow designer</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1535,7 +1539,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1550,7 +1554,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1560,12 +1564,12 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Encontrado por: brow designer</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=11248798053248878339</t>
+          <t>https://maps.google.com/?cid=16604810583853456438</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1575,13 +1579,13 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2026-02-13T16:46:57+00:00</t>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1590,41 +1594,45 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ChIJgb8qt8I1zJQRRlZIsOYKgwo</t>
+          <t>ChIJ2bc9yuMxGQ0R9ZYuFsQwyTE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Lash Designer - Gabriela Neves</t>
+          <t>Ann beauty lab</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/studiogabrielanevesdesign/</t>
+          <t>https://www.instagram.com/annbeauty_lab/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>+55 12 98830-7556</t>
+          <t>+351 935 426 562</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://wa.me/5512988307556</t>
+          <t>https://wa.me/351935426562</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>lash designer</t>
@@ -1652,17 +1660,17 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>127</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,health,point_of_interest,spa</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1672,12 +1680,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1687,7 +1695,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=757461148244661830</t>
+          <t>https://maps.google.com/?cid=3587452196921186037</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1697,13 +1705,13 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T17:37:08+00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1712,41 +1720,45 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ChIJq4a8aFm1zZQRUT8OqB29Ul4</t>
+          <t>ChIJoY8l05z5Ig0RKQ7Puar4coM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Liara Monteiro | Beauty Studio</t>
+          <t>Perfeit'Olhar Design de Sobrancelhas Coimbra</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/liaramonteiro.beautystudio_/</t>
+          <t>https://www.instagram.com/perfeitolhar_sobrancelhas/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>+55 12 98101-0808</t>
+          <t>+351 915 887 973</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://wa.me/5512981010808</t>
+          <t>https://wa.me/351915887973</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
+          <t>Coimbra</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Fonte da Cheira</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>designer de sobrancelhas</t>
@@ -1774,12 +1786,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>55</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1794,12 +1806,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1809,7 +1821,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6796702722726707025</t>
+          <t>https://maps.google.com/?cid=9471906378459057705</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1819,7 +1831,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T17:31:56+00:00</t>
         </is>
       </c>
     </row>
@@ -1834,33 +1846,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ChIJ86n95Ko1zJQRQFuRqniQmGw</t>
+          <t>ChIJ6Xv4nOI1GQ0RSURFzo8bvPs</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Serpa Beauty</t>
+          <t>Clara Azambuja | Brow Lamination e Lash Lifting</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/marianaserpa.beauty/</t>
+          <t>https://www.instagram.com/claraazambujadesign/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>+55 12 98231-2679</t>
+          <t>+351 936 083 037</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982312679</t>
+          <t>https://wa.me/351936083037</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Almada</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1871,7 +1883,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>micropigmentação</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1901,7 +1913,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1926,12 +1938,12 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>Encontrado por: brow designer</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7825163200488364864</t>
+          <t>https://maps.google.com/?cid=18139403703596434505</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1941,7 +1953,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2026-02-13T16:47:48+00:00</t>
+          <t>2026-02-13T17:33:16+00:00</t>
         </is>
       </c>
     </row>
@@ -1956,44 +1968,44 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ChIJufaQWkxLzJQRzHHU6oet3sE</t>
+          <t>ChIJvy3b9F5LzJQRvgFDKAAx8yY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Studio By Fabi Nascimento</t>
+          <t>Daiane Alves Lash Designer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/byfabiolanascimento/</t>
+          <t>https://www.instagram.com/daianealves.lash/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>+55 12 98223-6889</t>
+          <t>+55 12 99619-0354</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982236889</t>
+          <t>https://wa.me/5512996190354</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2023,7 +2035,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2048,12 +2060,12 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13969793893421838796</t>
+          <t>https://maps.google.com/?cid=2806640869527191998</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2063,7 +2075,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
@@ -2078,38 +2090,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ChIJfx0gFAC1zZQRUfh520b5TWc</t>
+          <t>ChIJtWE-R7dLzJQRHKGeIwJXyIQ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Studio Lírio Beleza e Fragrância</t>
+          <t>Designer de Sobrancelhas | GabCostaBeauty</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/studioliriosjc/</t>
+          <t>https://www.instagram.com/gabcostabeauty/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>+55 12 99774-4088</t>
+          <t>+55 12 98701-7483</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://wa.me/5512997744088</t>
+          <t>https://wa.me/5512987017483</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -2145,12 +2157,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>beauty_salon,clothing_store,establishment,point_of_interest,store</t>
+          <t>beauty_salon,establishment,point_of_interest</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2175,7 +2187,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7443879841838528593</t>
+          <t>https://maps.google.com/?cid=9567993075047768348</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2191,7 +2203,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2200,33 +2212,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ChIJf5oGuZtLzJQRNVl7ePFCYgQ</t>
+          <t>ChIJAYCsPsIzGQ0RzLe3FEdhjDA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Studio Bárbara - Sobrancelha e Cílios</t>
+          <t>Gabi Beauty | Micropigmentação de Sobrancelhas | odivelas, Lisboa, PT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/barbara.lashbrow/</t>
+          <t>https://www.instagram.com/gabibeautyoficial/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>+55 12 98162-3639</t>
+          <t>+351 966 398 060</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://wa.me/5512981623639</t>
+          <t>https://wa.me/351966398060</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2237,7 +2249,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2260,11 +2272,19 @@
           <t>OPERATIONAL</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,point_of_interest,store</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2274,22 +2294,22 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: micropigmentação</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=315888528745257269</t>
+          <t>https://maps.google.com/?cid=3498277968478189516</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2299,13 +2319,13 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T17:34:32+00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2314,29 +2334,33 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ChIJJWJD8vw1zJQR01gtMtSE0to</t>
+          <t>ChIJTymXF4N_GA0RPK1iiHK9Xg4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lash designer | Camila Fernandes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>Glow Up - Beauty Space</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/glowupbeautyspace_tomar/</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>+55 12 98272-3938</t>
+          <t>+351 910 753 236</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982723938</t>
+          <t>https://wa.me/351910753236</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Tomar</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2377,7 +2401,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2392,7 +2416,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -2407,7 +2431,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15767811292287293651</t>
+          <t>https://maps.google.com/?cid=1035473263953882428</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2417,13 +2441,13 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T17:31:56+00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2432,44 +2456,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ChIJ36so8ygyGQ0Rb3cm9vcFai4</t>
+          <t>ChIJ7aMnlvc1GQ0R6mBtrtufdBY</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Silvia Machado</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>JEICE ALMEIDA BEAUTY | SOBRANCELHAS PESTANAS BROW LAMINATION LASH LIFTING ALMADA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jeicealmeidabeauty/</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>+351 924 317 825</t>
+          <t>+351 925 518 071</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://wa.me/351924317825</t>
+          <t>https://wa.me/351925518071</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
+          <t>Almada</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Sala A</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2494,17 +2518,17 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>4</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,point_of_interest,store</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2514,22 +2538,22 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: brow designer</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3344492235820791663</t>
+          <t>https://maps.google.com/?cid=1618093932005908714</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2539,13 +2563,13 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T17:33:16+00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2554,44 +2578,44 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ChIJNeypPkC1zZQREcYxQNiwUX8</t>
+          <t>ChIJQ_Qf92E1zJQRA0cBEjvCG5w</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bianca Albuquerque</t>
+          <t>Karina Vieira Beauty Clinic</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/lashdesigner.albuquerque/</t>
+          <t>https://www.instagram.com/karinavieirabeautyclinic/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>+55 12 98185-5031</t>
+          <t>+55 12 98266-4176</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://wa.me/5512981855031</t>
+          <t>https://wa.me/5512982664176</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2621,12 +2645,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest,spa</t>
+          <t>beauty_salon,establishment,point_of_interest</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2636,22 +2660,22 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: brow designer</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9174308358766839313</t>
+          <t>https://maps.google.com/?cid=11248798053248878339</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2661,13 +2685,13 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T16:46:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2676,44 +2700,44 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ChIJLa_oDIJLzJQREDi0T1giiKA</t>
+          <t>ChIJgb8qt8I1zJQRRlZIsOYKgwo</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Fe Ribeiro Micro - Design de Sobrancelhas</t>
+          <t>Lash Designer - Gabriela Neves</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/feribeiromicro/</t>
+          <t>https://www.instagram.com/studiogabrielanevesdesign/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>+55 12 98898-6327</t>
+          <t>+55 12 98830-7556</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://wa.me/5512988986327</t>
+          <t>https://wa.me/5512988307556</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>brow designer</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2743,7 +2767,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>11</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2758,22 +2782,22 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Encontrado por: brow designer</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=11567533405590796304</t>
+          <t>https://maps.google.com/?cid=757461148244661830</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2783,13 +2807,13 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2026-02-13T16:46:57+00:00</t>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2798,33 +2822,33 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ChIJp00UCSIzGQ0RjxSisGTG7SA</t>
+          <t>ChIJ4ywMQb0xGQ0RN_4H1RfCKpE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jak Albuquerque Studio - Micropigmentação, tratamento de estrias e Formações</t>
+          <t>Laura de Paris Micropigmentação</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/jakalbuquerquestudio/</t>
+          <t>https://www.instagram.com/lauradeparismicro/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>+351 967 179 243</t>
+          <t>+351 912 697 424</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://wa.me/351967179243</t>
+          <t>https://wa.me/351912697424</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2860,17 +2884,17 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>14</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,point_of_interest,store</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2880,12 +2904,12 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2895,7 +2919,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2372770714456560783</t>
+          <t>https://maps.google.com/?cid=10460386492135505463</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2905,13 +2929,13 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2026-02-13T16:47:48+00:00</t>
+          <t>2026-02-13T17:34:32+00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2920,44 +2944,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ChIJBSGVroJlJA0RPeKMs9eCI9A</t>
+          <t>ChIJq4a8aFm1zZQRUT8OqB29Ul4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Leandra Torres - extensão de pestanas e sobrancelhas</t>
+          <t>Liara Monteiro | Beauty Studio</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/leandratorres.lash/</t>
+          <t>https://www.instagram.com/liaramonteiro.beautystudio_/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>+351 935 389 567</t>
+          <t>+55 12 98101-0808</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://wa.me/351935389567</t>
+          <t>https://wa.me/5512981010808</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2987,7 +3011,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>9</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3002,22 +3026,22 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14997975047015817789</t>
+          <t>https://maps.google.com/?cid=6796702722726707025</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3027,13 +3051,13 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3042,44 +3066,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ChIJrXUoSMdlJA0ReZ6KHZPf7OQ</t>
+          <t>ChIJ86n95Ko1zJQRQFuRqniQmGw</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Leticia Green Estética e sobrancelhas no Porto</t>
+          <t>Serpa Beauty</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/greenestetica/</t>
+          <t>https://www.instagram.com/marianaserpa.beauty/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>+351 931 403 541</t>
+          <t>+55 12 98231-2679</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://wa.me/351931403541</t>
+          <t>https://wa.me/5512982312679</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3109,7 +3133,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3124,22 +3148,22 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: micropigmentação</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16495805358100094585</t>
+          <t>https://maps.google.com/?cid=7825163200488364864</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3149,13 +3173,13 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3164,38 +3188,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ChIJgcBO2-1zIg0Ra0vlprEY-Nk</t>
+          <t>ChIJufaQWkxLzJQRzHHU6oet3sE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Micropigmentação| Design de Sobrancelha, Leiria Renata Carolini Academy</t>
+          <t>Studio By Fabi Nascimento</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/renata.carolinii/</t>
+          <t>https://www.instagram.com/byfabiolanascimento/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>+351 938 460 525</t>
+          <t>+55 12 98223-6889</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://wa.me/351938460525</t>
+          <t>https://wa.me/5512982236889</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -3231,7 +3255,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>9</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3246,12 +3270,12 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -3261,7 +3285,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15706330851742927723</t>
+          <t>https://maps.google.com/?cid=13969793893421838796</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3277,7 +3301,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3286,33 +3310,33 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ChIJWx2mu8AzGQ0RGSqAx_UeehA</t>
+          <t>ChIJdUZu88FlJA0Rfvgy9lPVuY4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Raphaela Rodrigues I Micropigmentação &amp; Remoção a Laser - Lisboa</t>
+          <t>Studio Catherine Cunha | Lifting de pestanas e Brow Lamination - Gaia, Porto</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/raphaelarodriguespmu/</t>
+          <t>https://www.instagram.com/acatherinecunha/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>+351 931 369 734</t>
+          <t>+351 913 654 524</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://wa.me/351931369734</t>
+          <t>https://wa.me/351913654524</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Vila Nova de Gaia</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3323,7 +3347,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>micropigmentação</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3353,7 +3377,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>10</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3368,22 +3392,22 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1187295492728433177</t>
+          <t>https://maps.google.com/?cid=10284485780666775678</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3393,13 +3417,13 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2026-02-13T16:47:48+00:00</t>
+          <t>2026-02-13T17:37:08+00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3408,33 +3432,33 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ChIJs_5HC7DJHg0RiJSIFjrInVE</t>
+          <t>ChIJR88W0FNzIg0R-EiVKTtR19M</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Renata Kellen PMU Especialista em Micropigmentação de Sobrancelhas e Lábios / Formações / Depilação a laser</t>
+          <t>STUDIO FRANCIELLY SÁ - ESPECIALISTA EM SOBRANCELHAS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/invites/</t>
+          <t>https://www.instagram.com/studiofranciellysa/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>+351 915 276 479</t>
+          <t>+351 961 776 370</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://wa.me/351915276479</t>
+          <t>https://wa.me/351961776370</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3445,7 +3469,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>micropigmentação</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3475,12 +3499,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>12</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest,store</t>
+          <t>beauty_salon,establishment,point_of_interest</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -3490,22 +3514,22 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5881076840227443848</t>
+          <t>https://maps.google.com/?cid=15264758776538155256</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3515,13 +3539,13 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2026-02-13T16:47:48+00:00</t>
+          <t>2026-02-13T17:31:56+00:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3530,38 +3554,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ChIJgVox5fdkJA0RAdl2EFz8l7U</t>
+          <t>ChIJfx0gFAC1zZQRUfh520b5TWc</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Studio Leia Liberato</t>
+          <t>Studio Lírio Beleza e Fragrância</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/studioleialiberato/</t>
+          <t>https://www.instagram.com/studioliriosjc/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>+351 916 530 629</t>
+          <t>+55 12 99774-4088</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://wa.me/351916530629</t>
+          <t>https://wa.me/5512997744088</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -3592,17 +3616,17 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
+          <t>beauty_salon,clothing_store,establishment,point_of_interest,store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -3612,12 +3636,12 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -3627,7 +3651,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13085204714691680513</t>
+          <t>https://maps.google.com/?cid=7443879841838528593</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3652,33 +3676,33 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ChIJFUk7p_BLzJQR3Y8OcPiwDk4</t>
+          <t>ChIJX6fVmVkQE20RkfAIuA2aoVs</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Studio Mari Silva - Estética e Micropigmentação</t>
+          <t>Espaço das Sobrancelhas</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/marisilva_studio/</t>
+          <t>https://www.instagram.com/espacodassobrancelhas.pt/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>+55 12 99606-2130</t>
+          <t>+351 939 826 810</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://wa.me/5512996062130</t>
+          <t>https://wa.me/351939826810</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>São Domingos de Rana</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3689,7 +3713,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>micropigmentação</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3712,19 +3736,11 @@
           <t>OPERATIONAL</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest,store</t>
+          <t>beauty_salon,establishment,hair_care,point_of_interest</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -3734,22 +3750,22 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5624627565710708701</t>
+          <t>https://maps.google.com/?cid=6602727912414703761</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3759,13 +3775,13 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2026-02-13T16:47:48+00:00</t>
+          <t>2026-02-13T17:31:56+00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3774,38 +3790,38 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ChIJ_bOCn8G1zZQR0bPiqijwiGw</t>
+          <t>ChIJf5oGuZtLzJQRNVl7ePFCYgQ</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ana Meirelles - Studio Beauty</t>
+          <t>Studio Bárbara - Sobrancelha e Cílios</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/studio.anameirelless/</t>
+          <t>https://www.instagram.com/barbara.lashbrow/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>+55 12 99745-3833</t>
+          <t>+55 12 98162-3639</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://wa.me/5512997453833</t>
+          <t>https://wa.me/5512981623639</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -3834,30 +3850,26 @@
           <t>OPERATIONAL</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3867,7 +3879,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7820764810385208273</t>
+          <t>https://maps.google.com/?cid=315888528745257269</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3883,7 +3895,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3892,40 +3904,40 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ChIJj1zbWo9LzJQRMat-7Y2yVk0</t>
+          <t>ChIJJWJD8vw1zJQR01gtMtSE0to</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Michelle de Oliveira | Sobrancelhista SJC</t>
+          <t>Lash designer | Camila Fernandes</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>+55 12 98290-8274</t>
+          <t>+55 12 98272-3938</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982908274</t>
+          <t>https://wa.me/5512982723938</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>micropigmentação</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3955,37 +3967,37 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=5572837911562201905</t>
+          <t>https://maps.google.com/?cid=15767811292287293651</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3995,13 +4007,13 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2026-02-13T16:47:48+00:00</t>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4010,29 +4022,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ChIJMeuzoFu1zZQRsO7a8mAdUBQ</t>
+          <t>ChIJ61mIiBIzGQ0Rk9Pqmk8XyBE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Paula Migri - Lash Designer - Extensão de Cílios</t>
+          <t>Lisbon Lash Lab Academy by Tânia Silva</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>+55 12 99672-6284</t>
+          <t>+351 967 452 640</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://wa.me/5512996726284</t>
+          <t>https://wa.me/351967452640</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -4068,34 +4080,34 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
       <c r="W30" t="inlineStr">
         <is>
           <t>Encontrado por: lash designer</t>
@@ -4103,7 +4115,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=1463702181123911344</t>
+          <t>https://maps.google.com/?cid=1281299724655842195</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -4113,13 +4125,13 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T17:37:08+00:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4128,29 +4140,33 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ChIJN9s1f9y1zZQRrsi7tz6kTzY</t>
+          <t>ChIJ4-mOe_0zGQ0RyGFZo5ynF1E</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>studio Hair Silvia Borges Salão</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>Madame Lash Lisbon * Pestanas * Lash Lifting * Sobrancelhas* Formações pestanas</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/madamelasheslisbon/</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>+55 12 99182-8980</t>
+          <t>+351 910 729 850</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://wa.me/5512991828980</t>
+          <t>https://wa.me/351910729850</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4161,7 +4177,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>brow designer</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -4186,12 +4202,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -4201,12 +4217,12 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -4216,12 +4232,12 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Encontrado por: brow designer</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3913527190485715118</t>
+          <t>https://maps.google.com/?cid=5843323332733788616</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4231,13 +4247,13 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2026-02-13T16:46:57+00:00</t>
+          <t>2026-02-13T17:37:08+00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4246,27 +4262,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ChIJwQdvRXW1zZQRqxjRWd6d2fc</t>
+          <t>ChIJ36so8ygyGQ0Rb3cm9vcFai4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Studio Letícia Felix Beauty</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/leticiafelix_beauty/</t>
-        </is>
-      </c>
+          <t>Silvia Machado</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>+55 12 99683-5598</t>
+          <t>+351 924 317 825</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://wa.me/5512996835598</t>
+          <t>https://wa.me/351924317825</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4280,10 +4292,14 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sala A</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -4308,12 +4324,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>105</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -4323,27 +4339,27 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=17859479375629588651</t>
+          <t>https://maps.google.com/?cid=3344492235820791663</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4353,13 +4369,13 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4368,40 +4384,44 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ChIJsUOhmtS1zZQRvL4IfbMmiWQ</t>
+          <t>ChIJNeypPkC1zZQREcYxQNiwUX8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Studio Stella Blanque</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>Bianca Albuquerque</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/lashdesigner.albuquerque/</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>+55 12 98213-7589</t>
+          <t>+55 12 98185-5031</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982137589</t>
+          <t>https://wa.me/5512981855031</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -4431,12 +4451,12 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>64</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,point_of_interest,spa</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -4446,22 +4466,22 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7244364027940880060</t>
+          <t>https://maps.google.com/?cid=9174308358766839313</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4471,13 +4491,13 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4486,33 +4506,33 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ChIJa4z_bGdNzJQR2Eup6Ohs4dE</t>
+          <t>ChIJqSEax01nIg0Rf8pEv9DGrZw</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Lashes by Amanda Gleycielle/ Extensão de cílios</t>
+          <t>Danielle Oliveira - Micropigmentação Pombal</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/byagleycielle/</t>
+          <t>https://www.instagram.com/danielleoliveirapmu/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>+55 12 98226-2341</t>
+          <t>+351 925 851 995</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982262341</t>
+          <t>https://wa.me/351925851995</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Pombal</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4523,7 +4543,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>estúdio de sobrancelhas</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -4553,12 +4573,12 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>70</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,point_of_interest</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -4573,17 +4593,17 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: estúdio de sobrancelhas</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15123488771278457816</t>
+          <t>https://maps.google.com/?cid=11289898440752155263</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4593,13 +4613,13 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T17:35:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4608,29 +4628,33 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ChIJ_YNBK6C1zZQRDOIlq97OzS8</t>
+          <t>ChIJvcIh5p4zGQ0RHrOmLrXzAPY</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Camarim Unhas e Sobrancelhas</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>Day Lashes</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/daylashes.pt/</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>+55 12 98820-3941</t>
+          <t>+351 936 067 027</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://wa.me/5512988203941</t>
+          <t>https://wa.me/351936067027</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lisboa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4641,7 +4665,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4666,17 +4690,17 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>41</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,hair_care,point_of_interest,store</t>
+          <t>beauty_salon,establishment,point_of_interest</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -4696,12 +4720,12 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3444636745757745676</t>
+          <t>https://maps.google.com/?cid=17726436092827579166</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4711,13 +4735,13 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T17:37:08+00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4726,29 +4750,33 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ChIJg2mL1BVLzJQREqBltCkPT7w</t>
+          <t>ChIJ5XJedzxpJA0RCWO5RMiI1yM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Carol Sampaio Micropigmentadora</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>Elaine Garcia Beauty - Especialista em Nanopigmentaçao, Microblading e Design Estratégico de Sobrancelhas</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/elainegarcia.beauty/</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>+55 12 98281-5874</t>
+          <t>+351 924 076 264</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982815874</t>
+          <t>https://wa.me/351924076264</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Lavra</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4759,7 +4787,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>micropigmentação</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -4784,12 +4812,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>48</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -4814,12 +4842,12 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13569080874085228562</t>
+          <t>https://maps.google.com/?cid=2582683305048105737</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4829,13 +4857,13 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2026-02-13T16:47:48+00:00</t>
+          <t>2026-02-13T17:31:56+00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4844,40 +4872,44 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ChIJ878Bz_m1zZQRaCjEh7WJomk</t>
+          <t>ChIJLa_oDIJLzJQREDi0T1giiKA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Esmalteria Pink Puppin</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>Fe Ribeiro Micro - Design de Sobrancelhas</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/feribeiromicro/</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>+55 12 99179-1543</t>
+          <t>+55 12 98898-6327</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://wa.me/5512991791543</t>
+          <t>https://wa.me/5512988986327</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4902,12 +4934,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>32</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -4932,12 +4964,12 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: brow designer</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7611797732969425000</t>
+          <t>https://maps.google.com/?cid=11567533405590796304</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4947,13 +4979,13 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:46:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4962,23 +4994,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ChIJRf0Vs1y1zZQRuCqU8Ewf6TU</t>
+          <t>ChIJp00UCSIzGQ0RjxSisGTG7SA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Espaço de Beleza Larissa Evelyn</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>Jak Albuquerque Studio - Micropigmentação, tratamento de estrias e Formações</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jakalbuquerquestudio/</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>+55 12 98254-3208</t>
+          <t>+351 967 179 243</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982543208</t>
+          <t>https://wa.me/351967179243</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -4995,7 +5031,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -5020,12 +5056,12 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>120</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -5050,12 +5086,12 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: micropigmentação</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3884670568897981112</t>
+          <t>https://maps.google.com/?cid=2372770714456560783</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -5065,13 +5101,13 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -5080,33 +5116,33 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ChIJs6VzczA1zJQRrGjydqRp4_k</t>
+          <t>ChIJofODNK5lJA0RTpE6gAFqXKE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Estúdio Sobrancelhas Bianca Fernandes</t>
+          <t>Joana Feijó BROW SALON</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/estudiosobrancelhasbf/</t>
+          <t>https://www.instagram.com/joanafeijo_browsalon/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>+55 12 99112-0138</t>
+          <t>+351 915 937 802</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://wa.me/5512991120138</t>
+          <t>https://wa.me/351915937802</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Vila Nova de Gaia</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -5117,7 +5153,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>estúdio de sobrancelhas</t>
+          <t>brow designer</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -5147,18 +5183,22 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>53</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest,spa</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
+          <t>beauty_salon,establishment,point_of_interest</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -5168,12 +5208,12 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>Encontrado por: estúdio de sobrancelhas</t>
+          <t>Encontrado por: brow designer</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=18006351890248525996</t>
+          <t>https://maps.google.com/?cid=11627284892642611534</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5183,13 +5223,13 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2026-02-13T16:48:45+00:00</t>
+          <t>2026-02-13T17:33:16+00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5198,23 +5238,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ChIJSY3LXjs1zJQRcpR2KB0akdA</t>
+          <t>ChIJBSGVroJlJA0RPeKMs9eCI9A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Gabriela Moraes - Design de Sobrancelhas, Estética e Depilação</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>Leandra Torres - extensão de pestanas e sobrancelhas</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/leandratorres.lash/</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>+55 12 98262-5196</t>
+          <t>+351 935 389 567</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982625196</t>
+          <t>https://wa.me/351935389567</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5231,7 +5275,7 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>lash designer</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -5261,7 +5305,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>182</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -5286,12 +5330,12 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: lash designer</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=15028822144047289458</t>
+          <t>https://maps.google.com/?cid=14997975047015817789</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5301,13 +5345,13 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:49:52+00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -5316,23 +5360,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ChIJvWTjOwA1zJQROkSWGaNg9bw</t>
+          <t>ChIJrXUoSMdlJA0ReZ6KHZPf7OQ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Iana Beauty | Extensão de cílios | Lash Lifting</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>Leticia Green Estética e sobrancelhas no Porto</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/greenestetica/</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>+55 12 98896-1911</t>
+          <t>+351 931 403 541</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://wa.me/5512988961911</t>
+          <t>https://wa.me/351931403541</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5349,7 +5397,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -5379,7 +5427,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>63</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -5404,12 +5452,12 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=13615895302049776698</t>
+          <t>https://maps.google.com/?cid=16495805358100094585</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5419,13 +5467,13 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -5434,23 +5482,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ChIJFW2WymBpzpQR0uR3s7vbHH8</t>
+          <t>ChIJgcBO2-1zIg0Ra0vlprEY-Nk</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jade Rodrigues Micropigmentação e academy</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>Micropigmentação| Design de Sobrancelha, Leiria Renata Carolini Academy</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/renata.carolinii/</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>+55 11 96100-8500</t>
+          <t>+351 938 460 525</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://wa.me/5511961008500</t>
+          <t>https://wa.me/351938460525</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5467,7 +5519,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>micropigmentação</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -5492,12 +5544,12 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>84</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -5522,12 +5574,12 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Encontrado por: micropigmentação</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=9159437341381092562</t>
+          <t>https://maps.google.com/?cid=15706330851742927723</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5537,13 +5589,13 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2026-02-13T16:47:48+00:00</t>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -5552,23 +5604,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ChIJsT0XHGBzIg0RXS2BAafecjc</t>
+          <t>ChIJWx2mu8AzGQ0RGSqAx_UeehA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Look 4 You</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>Raphaela Rodrigues I Micropigmentação &amp; Remoção a Laser - Lisboa</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/raphaelarodriguespmu/</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>+351 910 557 391</t>
+          <t>+351 931 369 734</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://wa.me/351910557391</t>
+          <t>https://wa.me/351931369734</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5585,7 +5641,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -5610,12 +5666,12 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>163</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -5640,12 +5696,12 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: micropigmentação</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=3995500628297198941</t>
+          <t>https://maps.google.com/?cid=1187295492728433177</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5655,13 +5711,13 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -5670,23 +5726,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ChIJSSkIUZazzZQRXVa5BeiOTKw</t>
+          <t>ChIJs_5HC7DJHg0RiJSIFjrInVE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mirian designer sobrancelhas</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>Renata Kellen PMU Especialista em Micropigmentação de Sobrancelhas e Lábios / Formações / Depilação a laser</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/invites/</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>+55 12 99778-7263</t>
+          <t>+351 915 276 479</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://wa.me/5512997787263</t>
+          <t>https://wa.me/351915276479</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5703,7 +5763,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>designer de sobrancelhas</t>
+          <t>micropigmentação</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -5733,12 +5793,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>156</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,point_of_interest,store</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -5758,12 +5818,12 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>Encontrado por: designer de sobrancelhas</t>
+          <t>Encontrado por: micropigmentação</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=12415455399933204061</t>
+          <t>https://maps.google.com/?cid=5881076840227443848</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5773,13 +5833,13 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2026-02-13T16:45:37+00:00</t>
+          <t>2026-02-13T16:47:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5788,23 +5848,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ChIJgzxlBwZLzJQR96bnyw5IggA</t>
+          <t>ChIJgVox5fdkJA0RAdl2EFz8l7U</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RAYNARA BIRAL BEAUTY</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Studio Leia Liberato</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/studioleialiberato/</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>+55 12 98800-7080</t>
+          <t>+351 916 530 629</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://wa.me/5512988007080</t>
+          <t>https://wa.me/351916530629</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5821,7 +5885,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>brow designer</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -5846,12 +5910,12 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>254</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -5876,12 +5940,12 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Encontrado por: brow designer</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=36670975360083703</t>
+          <t>https://maps.google.com/?cid=13085204714691680513</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5891,13 +5955,13 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2026-02-13T16:46:57+00:00</t>
+          <t>2026-02-13T16:45:37+00:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5906,34 +5970,38 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ChIJbZ9uGgBNzJQRe_Hgs3Ig3yI</t>
+          <t>ChIJFUk7p_BLzJQR3Y8OcPiwDk4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sheila Bittencourt Micropigmentação</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>Studio Mari Silva - Estética e Micropigmentação</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/marisilva_studio/</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>+55 12 99682-8970</t>
+          <t>+55 12 99606-2130</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://wa.me/5512996828970</t>
+          <t>https://wa.me/5512996062130</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -5964,17 +6032,17 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>65</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,point_of_interest,store</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -5999,7 +6067,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=2512762794112250235</t>
+          <t>https://maps.google.com/?cid=5624627565710708701</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -6015,7 +6083,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -6024,29 +6092,33 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ChIJ23DRpZU1zJQRTweBNrxl9c8</t>
+          <t>ChIJp2-RUTHpGA0R1ymgkvBib4M</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sobrancelhas &amp; Micropigmentação Jaqueline Oliveira</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>Studio STS - Stephanie Sousa - Rosto, Corpo e Mente</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sts.stephaniesousa/</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>+55 12 98160-2244</t>
+          <t>+351 939 914 404</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://wa.me/5512981602244</t>
+          <t>https://wa.me/351939914404</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Cartaxo</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6087,12 +6159,12 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>112</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>beauty_salon,establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,health,point_of_interest,spa,store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -6117,7 +6189,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=14984995194187876175</t>
+          <t>https://maps.google.com/?cid=9470897326775085527</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -6127,13 +6199,13 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2026-02-13T16:48:45+00:00</t>
+          <t>2026-02-13T17:35:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -6142,34 +6214,38 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ChIJpUW42cW1zZQR3PElAMAPVOk</t>
+          <t>ChIJ_bOCn8G1zZQR0bPiqijwiGw</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Studio Gabriella Santos design de sobrancelhas e lash</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>Ana Meirelles - Studio Beauty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/studio.anameirelless/</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>+55 12 98865-4503</t>
+          <t>+55 12 99745-3833</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://wa.me/5512988654503</t>
+          <t>https://wa.me/5512997453833</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Sao Jose dos Campos - SP</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -6205,7 +6281,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -6213,19 +6289,15 @@
           <t>beauty_salon,establishment,point_of_interest</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -6235,7 +6307,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=16813080626191528412</t>
+          <t>https://maps.google.com/?cid=7820764810385208273</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -6251,7 +6323,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -6260,29 +6332,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChIJD-EgDnlLzJQR4LB8vfxmED4</t>
+          <t>ChIJV9mxf6mfGA0R4NGLquHcoNY</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bruna Faria Designer de sobrancelhas e Micropigmentadora</t>
+          <t>Bella Beauty studio</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>+55 12 98271-5726</t>
+          <t>+351 963 032 636</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://wa.me/5512982715726</t>
+          <t>https://wa.me/351963032636</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Porto de Mós</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6293,7 +6365,7 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>brow designer</t>
+          <t>estúdio de sobrancelhas</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -6318,17 +6390,17 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>establishment,point_of_interest,store</t>
+          <t>beauty_salon,establishment,point_of_interest</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -6338,7 +6410,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -6348,12 +6420,12 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>Encontrado por: brow designer</t>
+          <t>Encontrado por: estúdio de sobrancelhas</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=4472187665675759840</t>
+          <t>https://maps.google.com/?cid=15465603982177325536</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6363,13 +6435,13 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2026-02-13T16:46:57+00:00</t>
+          <t>2026-02-13T17:35:48+00:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -6378,33 +6450,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ChIJw5IsWCDZGA0R3Q6MjQLp61U</t>
+          <t>ChIJ07eCW5VDGQ0RdMJHBFX4g3U</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Eva Araújo • Lash Designer • Pestanas Lisboa</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/evalashexpert/</t>
-        </is>
-      </c>
+          <t>Cris Farias - Designer de sobrancelhas | curso | formação em design de sobrancelhas | eyebrows | brow</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>+351 935 151 839</t>
+          <t>+351 925 752 983</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://wa.me/351935151839</t>
+          <t>https://wa.me/351925752983</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Setúbal</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6415,7 +6483,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -6445,12 +6513,12 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>15</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,point_of_interest</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -6460,22 +6528,22 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=6191298309924851421</t>
+          <t>https://maps.google.com/?cid=8467884768414384756</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6485,13 +6553,13 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T17:31:56+00:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -6500,33 +6568,33 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ChIJYzwHTQ8tGQ0RYgI0AiCt9mc</t>
+          <t>ChIJ3SZxNmBzIg0RNSfawHlR6nQ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Studio Karla Cunha - Arquiteta dos Cílios (Extensão de Pestanas - Lash Design)</t>
+          <t>Dani Carmo Beauty / sobrancelhas/ design</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/arquitetadoscilios/</t>
+          <t>https://www.instagram.com/danicarmobeauty/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>+351 924 703 508</t>
+          <t>+351 926 805 469</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://wa.me/351924703508</t>
+          <t>https://wa.me/351926805469</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6537,7 +6605,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>lash designer</t>
+          <t>designer de sobrancelhas</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -6567,37 +6635,37 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>9</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>establishment,point_of_interest</t>
+          <t>beauty_salon,establishment,point_of_interest</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Encontrado por: lash designer</t>
+          <t>Encontrado por: designer de sobrancelhas</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>https://maps.google.com/?cid=7491365383164920418</t>
+          <t>https://maps.google.com/?cid=8424635636318349109</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -6607,7 +6675,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2026-02-13T16:49:52+00:00</t>
+          <t>2026-02-13T17:31:56+00:00</t>
         </is>
       </c>
     </row>
